--- a/labor-timekeeper/exports/2026-01/2026-01-19/Jason_Green_2026-01-19.xlsx
+++ b/labor-timekeeper/exports/2026-01/2026-01-19/Jason_Green_2026-01-19.xlsx
@@ -35,34 +35,34 @@
     <t>2026-01-19</t>
   </si>
   <si>
-    <t>PTO</t>
+    <t>Markfield</t>
+  </si>
+  <si>
+    <t>Regular</t>
   </si>
   <si>
     <t>2026-01-20</t>
   </si>
   <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>Regular</t>
+    <t>Leixner/Smith</t>
   </si>
   <si>
     <t>2026-01-21</t>
   </si>
   <si>
-    <t>Davis</t>
+    <t>Hunter</t>
   </si>
   <si>
     <t>2026-01-22</t>
   </si>
   <si>
-    <t>Funke</t>
+    <t>O'Connor</t>
   </si>
   <si>
     <t>2026-01-23</t>
   </si>
   <si>
-    <t>Field</t>
+    <t>Varricchio</t>
   </si>
   <si>
     <t>SUBTOTAL</t>
@@ -71,7 +71,7 @@
     <t/>
   </si>
   <si>
-    <t>Reg: 32 / OT: 0</t>
+    <t>Reg: 40 / OT: 0</t>
   </si>
   <si>
     <t>Category: HOURLY</t>
@@ -98,7 +98,7 @@
     <t>Jason Green</t>
   </si>
   <si>
-    <t>emp_0tnwvsb4</t>
+    <t>emp_qhpjptqm</t>
   </si>
 </sst>
 </file>
@@ -555,36 +555,36 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -595,16 +595,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,16 +615,16 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,16 +635,16 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
@@ -664,7 +664,7 @@
         <v>18</v>
       </c>
       <c r="F8" s="5">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -704,7 +704,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="9">
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -812,19 +812,19 @@
         <v>7</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,22 +835,22 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -870,16 +870,16 @@
         <v>12</v>
       </c>
       <c r="E4">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -899,16 +899,16 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -928,16 +928,16 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
